--- a/Rubric.xlsx
+++ b/Rubric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d958ba4919e9ba1a/Documentos/Repos git hub/POOProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{DE9C0F3A-FD64-43B9-9DA9-01D920050E15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2AA47836-B3BC-4F09-9D5C-FEF4518ACADA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{B0E75C6B-CC32-4617-90E1-75519B81D536}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{647E6A06-51C7-4B80-A223-C3D336441527}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>Facultad de Matemáticas</t>
   </si>
@@ -229,6 +229,15 @@
   </si>
   <si>
     <t>https://youtu.be/o52JWiH3yvw?si=Qp7pH7AprdNlnKnD</t>
+  </si>
+  <si>
+    <t>https://github.com/IrabienMario/POOProject/tree/Final-delivery/ProjectBDMVC</t>
+  </si>
+  <si>
+    <t>https://github.com/IrabienMario/POOProject/blob/Final-delivery/Documentation.md</t>
+  </si>
+  <si>
+    <t>https://github.com/IrabienMario/POOProject/blob/Final-delivery/Documents/Reflexion.md</t>
   </si>
 </sst>
 </file>
@@ -756,21 +765,21 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1088,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CE4305-8F75-47EB-B7C7-431C904BDBED}">
   <dimension ref="B2:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1098,61 +1107,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="2:15" ht="16.5" thickBot="1">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="2:15" ht="16.5" thickBot="1">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="1"/>
       <c r="I5" s="2">
         <v>0</v>
@@ -1168,14 +1177,14 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="26.25" thickBot="1">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="1"/>
       <c r="I6" s="4" t="s">
         <v>7</v>
@@ -1191,16 +1200,16 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1210,8 +1219,8 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="1"/>
       <c r="I8" s="6" t="s">
         <v>11</v>
@@ -1252,10 +1261,10 @@
       <c r="E10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="41"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="1"/>
       <c r="I10" s="15"/>
       <c r="J10" s="1"/>
@@ -1268,17 +1277,17 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:15" ht="90" thickBot="1">
       <c r="B12" s="1"/>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="45" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -1287,27 +1296,29 @@
       <c r="E12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="41"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="1"/>
       <c r="I12" s="15"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="40"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:15" ht="114.75">
       <c r="B13" s="1"/>
-      <c r="C13" s="40"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="F13" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="42"/>
       <c r="H13" s="1"/>
       <c r="I13" s="15"/>
       <c r="J13" s="1"/>
@@ -1319,17 +1330,17 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="2:15" ht="115.5" thickBot="1">
       <c r="B15" s="1"/>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="45" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="16" t="s">
@@ -1338,10 +1349,10 @@
       <c r="E15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="41"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="1"/>
       <c r="I15" s="15"/>
       <c r="J15" s="1"/>
@@ -1350,17 +1361,17 @@
     </row>
     <row r="16" spans="2:15" ht="63.75">
       <c r="B16" s="1"/>
-      <c r="C16" s="40"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="41"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="1"/>
       <c r="I16" s="15"/>
       <c r="J16" s="1"/>
@@ -1376,10 +1387,12 @@
       <c r="E17" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="F17" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1389,17 +1402,17 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:12" ht="39" thickBot="1">
       <c r="B19" s="1"/>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="45" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="18" t="s">
@@ -1408,10 +1421,10 @@
       <c r="E19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="41"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="1"/>
       <c r="I19" s="15"/>
       <c r="J19" s="1"/>
@@ -1420,17 +1433,17 @@
     </row>
     <row r="20" spans="2:12" ht="89.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="40"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="41"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="1"/>
       <c r="I20" s="24"/>
       <c r="J20" s="1"/>
@@ -1439,17 +1452,17 @@
     </row>
     <row r="21" spans="2:12" ht="128.25" thickBot="1">
       <c r="B21" s="1"/>
-      <c r="C21" s="40"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="41"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="1"/>
       <c r="I21" s="15"/>
       <c r="J21" s="1"/>
@@ -1458,17 +1471,17 @@
     </row>
     <row r="22" spans="2:12" ht="63.75">
       <c r="B22" s="1"/>
-      <c r="C22" s="40"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="27" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="41"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="1"/>
       <c r="I22" s="15"/>
       <c r="J22" s="1"/>
@@ -1480,17 +1493,17 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="2:12" ht="141" thickBot="1">
       <c r="B24" s="1"/>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="47" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="29" t="s">
@@ -1499,10 +1512,10 @@
       <c r="E24" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="41"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="1"/>
       <c r="I24" s="15"/>
       <c r="J24" s="1"/>
@@ -1511,15 +1524,15 @@
     </row>
     <row r="25" spans="2:12" ht="38.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="42"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="31" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="41"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="1"/>
       <c r="I25" s="24"/>
       <c r="J25" s="1"/>
@@ -1528,15 +1541,15 @@
     </row>
     <row r="26" spans="2:12" ht="39" thickBot="1">
       <c r="B26" s="1"/>
-      <c r="C26" s="42"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="33" t="s">
         <v>45</v>
       </c>
       <c r="E26" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="41"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="42"/>
       <c r="H26" s="1"/>
       <c r="I26" s="15"/>
       <c r="J26" s="1"/>
@@ -1548,17 +1561,17 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="2:12" ht="36.75" thickBot="1">
       <c r="B28" s="1"/>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="45" t="s">
         <v>47</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -1567,25 +1580,29 @@
       <c r="E28" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
+      <c r="F28" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="42"/>
       <c r="H28" s="1"/>
       <c r="I28" s="15"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="48"/>
+      <c r="K28" s="40"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="2:12" ht="60">
       <c r="B29" s="1"/>
-      <c r="C29" s="40"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E29" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
+      <c r="F29" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="42"/>
       <c r="H29" s="1"/>
       <c r="I29" s="24"/>
       <c r="J29" s="1"/>
@@ -1597,10 +1614,10 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1641,24 +1658,24 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="F11:G11"/>
@@ -1673,24 +1690,24 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F10" r:id="rId1" xr:uid="{20CF9ABC-81C4-4E56-80F1-C5EF52D613B1}"/>
@@ -1702,8 +1719,12 @@
     <hyperlink ref="F21" r:id="rId7" xr:uid="{93ACC038-376A-472D-AF51-586A61035C44}"/>
     <hyperlink ref="F22" r:id="rId8" xr:uid="{F409B9D7-93EB-4FA4-BB2B-384041854230}"/>
     <hyperlink ref="F24" r:id="rId9" xr:uid="{CA75C1A4-F050-457E-9FD8-0CBCF1F70246}"/>
+    <hyperlink ref="F17" r:id="rId10" xr:uid="{81AFCA3B-B250-481B-B20C-F729B533F619}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{E660824B-C632-43D4-BC81-E7A94C9E0276}"/>
+    <hyperlink ref="F28" r:id="rId12" xr:uid="{F0B9408F-CA99-4C04-A7F0-FCD04FF31080}"/>
+    <hyperlink ref="F29" r:id="rId13" xr:uid="{74BA96B6-23B4-4F6F-858D-69F3451732FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>